--- a/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance_simpl-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_country_name_vs_governance_simpl-PC.xlsx
@@ -396,19 +396,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>17.859</v>
+        <v>17.225</v>
       </c>
       <c r="C2">
-        <v>54.761</v>
+        <v>55.287</v>
       </c>
       <c r="D2">
-        <v>1.839</v>
+        <v>1.818</v>
       </c>
       <c r="E2">
-        <v>1.965</v>
+        <v>1.986</v>
       </c>
       <c r="F2">
-        <v>76.42400000000001</v>
+        <v>76.316</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.9320000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="C3">
-        <v>1.285</v>
+        <v>1.435</v>
       </c>
       <c r="D3">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="E3">
-        <v>0.202</v>
+        <v>0.191</v>
       </c>
       <c r="F3">
-        <v>2.444</v>
+        <v>2.559</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>4.257</v>
+        <v>4.139</v>
       </c>
       <c r="C4">
-        <v>9.824</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="D4">
-        <v>0.6800000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E4">
-        <v>0.202</v>
+        <v>0.167</v>
       </c>
       <c r="F4">
-        <v>14.963</v>
+        <v>14.904</v>
       </c>
     </row>
     <row r="5">
@@ -462,19 +462,19 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.788</v>
+        <v>1.818</v>
       </c>
       <c r="C5">
-        <v>3.98</v>
+        <v>4.019</v>
       </c>
       <c r="D5">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>0.277</v>
+        <v>0.263</v>
       </c>
       <c r="F5">
-        <v>6.171</v>
+        <v>6.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>24.836</v>
+        <v>24.091</v>
       </c>
       <c r="C6">
-        <v>69.85000000000001</v>
+        <v>70.669</v>
       </c>
       <c r="D6">
-        <v>2.67</v>
+        <v>2.632</v>
       </c>
       <c r="E6">
-        <v>2.646</v>
+        <v>2.607</v>
       </c>
       <c r="F6">
-        <v>100.002</v>
+        <v>99.99900000000001</v>
       </c>
     </row>
   </sheetData>
